--- a/Data_Files/GSE.Arranged.Desc_order20.xlsx
+++ b/Data_Files/GSE.Arranged.Desc_order20.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -68,43 +68,43 @@
     <t>GO:0002274</t>
   </si>
   <si>
+    <t>GO:0006909</t>
+  </si>
+  <si>
+    <t>GO:0071219</t>
+  </si>
+  <si>
+    <t>GO:0071674</t>
+  </si>
+  <si>
     <t>GO:0003203</t>
   </si>
   <si>
-    <t>GO:0071219</t>
-  </si>
-  <si>
-    <t>GO:0006909</t>
-  </si>
-  <si>
-    <t>GO:0071674</t>
+    <t>GO:0002822</t>
+  </si>
+  <si>
+    <t>GO:0032496</t>
   </si>
   <si>
     <t>GO:0050729</t>
   </si>
   <si>
+    <t>GO:0002237</t>
+  </si>
+  <si>
+    <t>GO:0002819</t>
+  </si>
+  <si>
     <t>GO:0060317</t>
   </si>
   <si>
-    <t>GO:0002822</t>
-  </si>
-  <si>
-    <t>GO:0002819</t>
-  </si>
-  <si>
-    <t>GO:0032496</t>
-  </si>
-  <si>
-    <t>GO:0002237</t>
-  </si>
-  <si>
     <t>GO:0007033</t>
   </si>
   <si>
     <t>GO:0070663</t>
   </si>
   <si>
-    <t>GO:0034405</t>
+    <t>GO:0071222</t>
   </si>
   <si>
     <t>mesenchyme morphogenesis</t>
@@ -128,43 +128,43 @@
     <t>myeloid leukocyte activation</t>
   </si>
   <si>
+    <t>phagocytosis</t>
+  </si>
+  <si>
+    <t>cellular response to molecule of bacterial origin</t>
+  </si>
+  <si>
+    <t>mononuclear cell migration</t>
+  </si>
+  <si>
     <t>endocardial cushion morphogenesis</t>
   </si>
   <si>
-    <t>cellular response to molecule of bacterial origin</t>
-  </si>
-  <si>
-    <t>phagocytosis</t>
-  </si>
-  <si>
-    <t>mononuclear cell migration</t>
+    <t>regulation of adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
+  </si>
+  <si>
+    <t>response to lipopolysaccharide</t>
   </si>
   <si>
     <t>positive regulation of inflammatory response</t>
   </si>
   <si>
+    <t>response to molecule of bacterial origin</t>
+  </si>
+  <si>
+    <t>regulation of adaptive immune response</t>
+  </si>
+  <si>
     <t>cardiac epithelial to mesenchymal transition</t>
   </si>
   <si>
-    <t>regulation of adaptive immune response based on somatic recombination of immune receptors built from immunoglobulin superfamily domains</t>
-  </si>
-  <si>
-    <t>regulation of adaptive immune response</t>
-  </si>
-  <si>
-    <t>response to lipopolysaccharide</t>
-  </si>
-  <si>
-    <t>response to molecule of bacterial origin</t>
-  </si>
-  <si>
     <t>vacuole organization</t>
   </si>
   <si>
     <t>regulation of leukocyte proliferation</t>
   </si>
   <si>
-    <t>response to fluid shear stress</t>
+    <t>cellular response to lipopolysaccharide</t>
   </si>
   <si>
     <t>tags=38%, list=15%, signal=32%</t>
@@ -185,45 +185,42 @@
     <t>tags=31%, list=9%, signal=28%</t>
   </si>
   <si>
+    <t>tags=33%, list=13%, signal=29%</t>
+  </si>
+  <si>
+    <t>tags=30%, list=10%, signal=27%</t>
+  </si>
+  <si>
+    <t>tags=34%, list=13%, signal=30%</t>
+  </si>
+  <si>
     <t>tags=49%, list=18%, signal=40%</t>
   </si>
   <si>
-    <t>tags=30%, list=10%, signal=27%</t>
-  </si>
-  <si>
-    <t>tags=33%, list=13%, signal=29%</t>
-  </si>
-  <si>
-    <t>tags=34%, list=13%, signal=30%</t>
+    <t>tags=24%, list=9%, signal=22%</t>
+  </si>
+  <si>
+    <t>tags=35%, list=15%, signal=30%</t>
   </si>
   <si>
     <t>tags=33%, list=10%, signal=30%</t>
   </si>
   <si>
+    <t>tags=34%, list=14%, signal=29%</t>
+  </si>
+  <si>
+    <t>tags=28%, list=14%, signal=25%</t>
+  </si>
+  <si>
     <t>tags=67%, list=18%, signal=55%</t>
   </si>
   <si>
-    <t>tags=24%, list=9%, signal=22%</t>
-  </si>
-  <si>
-    <t>tags=28%, list=14%, signal=25%</t>
-  </si>
-  <si>
-    <t>tags=35%, list=15%, signal=30%</t>
-  </si>
-  <si>
-    <t>tags=34%, list=14%, signal=29%</t>
-  </si>
-  <si>
     <t>tags=40%, list=16%, signal=34%</t>
   </si>
   <si>
     <t>tags=27%, list=10%, signal=24%</t>
   </si>
   <si>
-    <t>tags=56%, list=15%, signal=48%</t>
-  </si>
-  <si>
     <t>BMP5/ACVRL1/TMEM100/ACTA1/SMAD4/HEYL/APLNR/FOXF1/TBX2/RBPJ/ADAMTS5/TBX3/ISL1/TGFBR1/HEY1/HEY2/OSR1/TGFBR2/BMP2/TGFB2/TWIST1</t>
   </si>
   <si>
@@ -242,43 +239,43 @@
     <t>FCGR2B/SNAP23/CD84/PSEN1/IFNGR1/PREX1/JAK2/BATF/C5AR1/CSF1/DHRS2/CD93/C1QA/TREX1/BTK/SPI1/BATF2/TLR2/TLR4/CD33/FOXF1/CD200/ITGB2/DNASE1L3/IL6/RBPJ/SNCA/LAT2/LTBR/ANXA3/PLA2G2A/IL4R/TLR1/MILR1/IL33/SNX4/PRKCD/AIF1/PRKCE/FCER1G/IFNGR2/GPR137B/C12orf4/VAMP8/CXCL8/STX4/IL10/PTAFR/FES/ADORA2B/ITGAM/SYK/VSIG4/TMEM106A/ADGRF5/SLAMF1/KIT/SCN11A/CTSC/LCP2/NR1H3/HAVCR2/FER/LYN/S100A12/VAMP7/LILRB4/PIK3CG/NAGLU/TYROBP</t>
   </si>
   <si>
+    <t>PECAM1/FCGR2B/PTPRJ/ABCA1/PLA2G5/HCK/GAS6/SIRPA/SCARB1/ELMO1/COLEC10/NCF4/MERTK/CCL2/C2/YES1/CD93/ARHGAP25/TREX1/TIMD4/FCN3/BTK/VAV1/TLR2/TLR4/ARL8B/ITGB2/TM9SF4/CD36/FPR2/ANXA3/NCF2/PTK2/PRKCD/AIF1/PRKCE/FCER1G/TAFA4/C4BPB/ATG3/CLEC7A/NCKAP1L/RAB7A/ITGAM/SYK/CD14/MSR1/SLAMF1/CD47/VIPAS39/NR1H3/LYN/VAMP7/VAV3/TYROBP/SOD1/PYCARD/RAC1/PIK3CA/ATG5/IRF8/ANO6/RAB5A/COLEC12/TUSC2/ARHGAP12/DOCK2/SNX3/RAB20/ANXA1/PIP4P2/GULP1</t>
+  </si>
+  <si>
+    <t>FCGR2B/LILRB2/ABCA1/HCK/BMP6/CD40/CD180/SIRPA/SCARB1/JAK2/PF4/CCL2/CARD16/PPBP/CD86/PDCD4/NLRP3/SPI1/LY86/CASP1/TLR2/TLR4/PLSCR4/MEF2C/PDE4B/NFKBIZ/IL6/ZFP36/AHR/CD36/CASP7/TLR1/MAPK14/CD274/LY96/PRKCE/TNFRSF1B/SERPINE1/CXCL1/CXCL2/IL36RN/TRIB1/CXCL8/MRC1/IL10/PTAFR/CD68/MALT1/RHOA/CD14/TNFAIP3/TNIP3/NR1H3/HAVCR2/LYN/NFKBIA/MAPK8/PYCARD/GIT1/CSF3/CHMP5/IRF8/CXCL5</t>
+  </si>
+  <si>
+    <t>JAM2/PECAM1/ALOX5/BMP5/GPR183/LGMN/JAM3/ICAM1/GAS6/SIRPA/CCL13/PDGFB/CMKLR1/CCL2/CSF1R/C5AR1/CSF1/PLCB1/WASL/CCL8/ECM1/CRK/SPI1/NEDD9/C3AR1/CD200/IL6/FPR2/S1PR1/PTPRO/PTK2/CD200R1/AIF1/SLC8B1/SERPINE1/DUSP1/RARRES2/TNFRSF11A/RHOA/SLAMF1/CD47/LYN/S100A12/CXCL16/PIK3CG/MOSPD2/CH25H/IL12A/CCL4/PYCARD/ANO6/FLT1/CCR1/PLA2G7/TNFRSF14/ASB2/CCL20/CD99L2/ADAM10/ANXA1/STK10/ADTRP/CRKL/ADAM17</t>
+  </si>
+  <si>
     <t>BMP5/ACVRL1/TMEM100/SMAD4/HEYL/APLNR/TBX2/RBPJ/ADAMTS5/TBX3/ISL1/TGFBR1/HEY1/HEY2/TGFBR2/BMP2/TGFB2/TWIST1/ACVR1/ENG</t>
   </si>
   <si>
-    <t>FCGR2B/LILRB2/ABCA1/HCK/BMP6/CD40/CD180/SIRPA/SCARB1/JAK2/PF4/CCL2/CARD16/PPBP/CD86/PDCD4/NLRP3/SPI1/LY86/CASP1/TLR2/TLR4/PLSCR4/MEF2C/PDE4B/NFKBIZ/IL6/ZFP36/AHR/CD36/CASP7/TLR1/MAPK14/CD274/LY96/PRKCE/TNFRSF1B/SERPINE1/CXCL1/CXCL2/IL36RN/TRIB1/CXCL8/MRC1/IL10/PTAFR/CD68/MALT1/RHOA/CD14/TNFAIP3/TNIP3/NR1H3/HAVCR2/LYN/NFKBIA/MAPK8/PYCARD/GIT1/CSF3/CHMP5/IRF8/CXCL5</t>
-  </si>
-  <si>
-    <t>PECAM1/FCGR2B/PTPRJ/ABCA1/PLA2G5/HCK/GAS6/SIRPA/SCARB1/ELMO1/COLEC10/NCF4/MERTK/CCL2/C2/YES1/CD93/ARHGAP25/TREX1/TIMD4/FCN3/BTK/VAV1/TLR2/TLR4/ARL8B/ITGB2/TM9SF4/CD36/FPR2/ANXA3/NCF2/PTK2/PRKCD/AIF1/PRKCE/FCER1G/TAFA4/C4BPB/ATG3/CLEC7A/NCKAP1L/RAB7A/ITGAM/SYK/CD14/MSR1/SLAMF1/CD47/VIPAS39/NR1H3/LYN/VAMP7/VAV3/TYROBP/SOD1/PYCARD/RAC1/PIK3CA/ATG5/IRF8/ANO6/RAB5A/COLEC12/TUSC2/ARHGAP12/DOCK2/SNX3/RAB20/ANXA1/PIP4P2/GULP1</t>
-  </si>
-  <si>
-    <t>JAM2/PECAM1/ALOX5/BMP5/GPR183/LGMN/JAM3/ICAM1/GAS6/SIRPA/CCL13/PDGFB/CMKLR1/CCL2/CSF1R/C5AR1/CSF1/PLCB1/WASL/CCL8/ECM1/CRK/SPI1/NEDD9/C3AR1/CD200/IL6/FPR2/S1PR1/PTPRO/PTK2/CD200R1/AIF1/SLC8B1/SERPINE1/DUSP1/RARRES2/TNFRSF11A/RHOA/SLAMF1/CD47/LYN/S100A12/CXCL16/PIK3CG/MOSPD2/CH25H/IL12A/CCL4/PYCARD/ANO6/FLT1/CCR1/PLA2G7/TNFRSF14/ASB2/CCL20/CD99L2/ADAM10/ANXA1/STK10/ADTRP/CRKL/ADAM17</t>
+    <t>SVEP1/FCGR2B/CR1/IL18R1/CD40/CD46/HLX/CD28/TNFSF13B/JAK2/BATF/DUSP22/NLRP3/BTK/SMAD7/STX7/CD4/MEF2C/NFKBIZ/IL6/AHR/HFE/IL4R/SASH3/IL33/CD274/TNFRSF1B/FBXO38/C4BPB/CLEC7A/TFRC/NCKAP1L/IL10/MALT1/TNFAIP3/RSAD2/SLAMF1/CR1L/EXOSC6/HAVCR2/LILRB4/IL12A</t>
+  </si>
+  <si>
+    <t>LILRB2/ABCA1/HCK/BMP6/TAB2/S100A9/CD40/CD180/SIRPA/SCARB1/THBD/IL12RB2/JAK2/PF4/CCL2/C2/CARD16/PPBP/SELE/CD86/PTGFR/CYP1A1/PDCD4/NLRP3/IFNAR1/BTK/CLDN1/PELI1/SPI1/LY86/CASP1/TLR2/TLR4/PLSCR4/MEF2C/PDE4B/NFKBIZ/IL6/ZFP36/CD36/SNCA/CASP7/CSF2RB/MAPK14/CD274/LY96/PRKCE/TNFRSF1B/S100A8/SERPINE1/CXCL1/CXCL2/IL36RN/TRIB1/CXCL8/MAPKAPK3/SMAD6/MRC1/IL10/ADM/PTAFR/CD68/MALT1/TNFRSF11A/CEBPB/SRR/RHOA/CD14/TNFAIP3/TNIP3/FBXO3/FOS/MGST2/HPGD/NR1H3/HAVCR2/FER/LYN/NAGLU/IL12A/NFKBIA/MAPK8/PYCARD/IDO1/GIT1/CSF3/CHMP5/IRF8/CXCL5/IL10RA/CMPK2/IL18BP/RPS6KA3/NFKB2/PTGS2/CXCL6/KMO/ADAM9/NFKB1/NFKBIB/ADAM17/NR4A1/PRDX3/ANKRD1/BDKRB1/IL1A/IL24/AKIRIN2/CASP3/IRAK4/P2RX7/IL1B/MMP8</t>
   </si>
   <si>
     <t>RIPK1/LPL/S100A9/NINJ1/CD28/TLR7/PDCD4/STAT5B/NLRC4/NLRP3/BTK/CASP1/TLR2/TLR4/TNFRSF1A/CASP4/NLRP1/NFKBIZ/IL6/AIM2/SNCA/PLA2G2A/IL33/SNX4/S100A8/SERPINE1/VAMP8/AGTR1/GPSM3/ETS1/FEM1A/ADORA2B/TNFRSF11A/CEBPB/MGST2/CD47/CTSC/S100A12/VAMP7/PIK3CG/ALOX5AP/NFKBIA/GSDMD/PYCARD/IDO1</t>
   </si>
   <si>
+    <t>FCGR2B/LILRB2/ABCA1/HCK/BMP6/TAB2/S100A9/CD40/CD180/SIRPA/SCARB1/THBD/IL12RB2/JAK2/PF4/CCL2/C2/CARD16/PPBP/SELE/CD86/C5AR1/PTGFR/CYP1A1/PDCD4/NLRP3/IFNAR1/BTK/CLDN1/PELI1/SPI1/LY86/CASP1/TLR2/TLR4/PLSCR4/MEF2C/PDE4B/NFKBIZ/IL6/ZFP36/AHR/CD36/SNCA/CASP7/TLR1/CSF2RB/MAPK14/CD274/LY96/PRKCE/TNFRSF1B/S100A8/SERPINE1/CXCL1/CXCL2/IL36RN/TRIB1/CXCL8/MAPKAPK3/SMAD6/MRC1/IL10/ADM/PTAFR/CD68/MALT1/TNFRSF11A/CEBPB/SRR/RHOA/CD14/TNFAIP3/TNIP3/FBXO3/FOS/MGST2/HPGD/NR1H3/HAVCR2/FER/LYN/NAGLU/IL12A/NFKBIA/MAPK8/PYCARD/IDO1/GIT1/CSF3/CHMP5/IRF8/CXCL5/IL10RA/CMPK2/IL18BP/RPS6KA3/NFKB2/PTGS2/CXCL6/KMO/ADAM9/NFKB1/NFKBIB/ADAM17/NR4A1/PRDX3/IRF5/ANKRD1/BDKRB1/IL1A/IL24/AKIRIN2</t>
+  </si>
+  <si>
+    <t>SVEP1/FCGR2B/CR1/IL18R1/CD40/CD46/HLX/CD28/TNFSF13B/JAK2/BATF/DUSP22/NLRP3/BTK/SMAD7/STX7/CD4/MEF2C/NFKBIZ/IL6/AHR/HFE/IL4R/SASH3/IL33/CD274/TNFRSF1B/FBXO38/C4BPB/SAMSN1/CLEC7A/TFRC/NCKAP1L/IL10/MALT1/TNFAIP3/RSAD2/SLAMF1/CR1L/EXOSC6/ADCY7/HAVCR2/LILRB4/IL12A/PYCARD/SIRT1/WAS/JUNB/TNFRSF14/ANXA1/PPP3CB/MAP3K7/PTPN6/JAK3/AKIRIN2</t>
+  </si>
+  <si>
     <t>TMEM100/SMAD4/HEYL/PDCD4/RBPJ/EMP2/TBX3/SPRY1/JAG1/TGFBR3/TGFBR1/HEY1/WNT2/HEY2/ADAM15/HAS2/TGFBR2/BMP2/TGFB2/TWIST1/ACVR1/ENG</t>
   </si>
   <si>
-    <t>SVEP1/FCGR2B/CR1/IL18R1/CD40/CD46/HLX/CD28/TNFSF13B/JAK2/BATF/DUSP22/NLRP3/BTK/SMAD7/STX7/CD4/MEF2C/NFKBIZ/IL6/AHR/HFE/IL4R/SASH3/IL33/CD274/TNFRSF1B/FBXO38/C4BPB/CLEC7A/TFRC/NCKAP1L/IL10/MALT1/TNFAIP3/RSAD2/SLAMF1/CR1L/EXOSC6/HAVCR2/LILRB4/IL12A</t>
-  </si>
-  <si>
-    <t>SVEP1/FCGR2B/CR1/IL18R1/CD40/CD46/HLX/CD28/TNFSF13B/JAK2/BATF/DUSP22/NLRP3/BTK/SMAD7/STX7/CD4/MEF2C/NFKBIZ/IL6/AHR/HFE/IL4R/SASH3/IL33/CD274/TNFRSF1B/FBXO38/C4BPB/SAMSN1/CLEC7A/TFRC/NCKAP1L/IL10/MALT1/TNFAIP3/RSAD2/SLAMF1/CR1L/EXOSC6/ADCY7/HAVCR2/LILRB4/IL12A/PYCARD/SIRT1/WAS/JUNB/TNFRSF14/ANXA1/PPP3CB/MAP3K7/PTPN6/JAK3/AKIRIN2</t>
-  </si>
-  <si>
-    <t>LILRB2/ABCA1/HCK/BMP6/TAB2/S100A9/CD40/CD180/SIRPA/SCARB1/THBD/IL12RB2/JAK2/PF4/CCL2/C2/CARD16/PPBP/SELE/CD86/PTGFR/CYP1A1/PDCD4/NLRP3/IFNAR1/BTK/CLDN1/PELI1/SPI1/LY86/CASP1/TLR2/TLR4/PLSCR4/MEF2C/PDE4B/NFKBIZ/IL6/ZFP36/CD36/SNCA/CASP7/CSF2RB/MAPK14/CD274/LY96/PRKCE/TNFRSF1B/S100A8/SERPINE1/CXCL1/CXCL2/IL36RN/TRIB1/CXCL8/MAPKAPK3/SMAD6/MRC1/IL10/ADM/PTAFR/CD68/MALT1/TNFRSF11A/CEBPB/SRR/RHOA/CD14/TNFAIP3/TNIP3/FBXO3/FOS/MGST2/HPGD/NR1H3/HAVCR2/FER/LYN/NAGLU/IL12A/NFKBIA/MAPK8/PYCARD/IDO1/GIT1/CSF3/CHMP5/IRF8/CXCL5/IL10RA/CMPK2/IL18BP/RPS6KA3/NFKB2/PTGS2/CXCL6/KMO/ADAM9/NFKB1/NFKBIB/ADAM17/NR4A1/PRDX3/ANKRD1/BDKRB1/IL1A/IL24/AKIRIN2/CASP3/IRAK4/P2RX7/IL1B/MMP8</t>
-  </si>
-  <si>
-    <t>FCGR2B/LILRB2/ABCA1/HCK/BMP6/TAB2/S100A9/CD40/CD180/SIRPA/SCARB1/THBD/IL12RB2/JAK2/PF4/CCL2/C2/CARD16/PPBP/SELE/CD86/C5AR1/PTGFR/CYP1A1/PDCD4/NLRP3/IFNAR1/BTK/CLDN1/PELI1/SPI1/LY86/CASP1/TLR2/TLR4/PLSCR4/MEF2C/PDE4B/NFKBIZ/IL6/ZFP36/AHR/CD36/SNCA/CASP7/TLR1/CSF2RB/MAPK14/CD274/LY96/PRKCE/TNFRSF1B/S100A8/SERPINE1/CXCL1/CXCL2/IL36RN/TRIB1/CXCL8/MAPKAPK3/SMAD6/MRC1/IL10/ADM/PTAFR/CD68/MALT1/TNFRSF11A/CEBPB/SRR/RHOA/CD14/TNFAIP3/TNIP3/FBXO3/FOS/MGST2/HPGD/NR1H3/HAVCR2/FER/LYN/NAGLU/IL12A/NFKBIA/MAPK8/PYCARD/IDO1/GIT1/CSF3/CHMP5/IRF8/CXCL5/IL10RA/CMPK2/IL18BP/RPS6KA3/NFKB2/PTGS2/CXCL6/KMO/ADAM9/NFKB1/NFKBIB/ADAM17/NR4A1/PRDX3/IRF5/ANKRD1/BDKRB1/IL1A/IL24/AKIRIN2</t>
-  </si>
-  <si>
     <t>MAP1LC3C/TP53INP1/ABCA1/PLA2G5/MCOLN1/ACP2/PSEN1/MAP1LC3B/GABARAPL2/TREX1/ATP6V1F/CREG1/C9orf72/TMEM199/PINK1/ARL8B/CHMP1B/NAGPA/TPP1/PHF23/PIP4K2B/ATP6AP1/STING1/FEZ1/SNX4/ATG7/FIG4/PIK3C2B/FEZ2/OCA2/ATG14/LAPTM5/CHMP2B/ATP6V0B/ATG3/HEXB/LIPA/HSD17B1/RAB7A/MTM1/SCARB2/RALB/SNX18/TBC1D14/AKTIP/VIPAS39/ATG9A/STX17/FNIP1/NAGLU/ULK2/RAB1A/HEXA/ATG16L1/PPT1/TFE3/ATG5/CHMP5/AMBRA1/RAB5A/CLN6/TMEM106B/WIPI1/SMCR8/ATP6V0A1/ATG4D/VPS54/RAB20/UBXN2B/CTSD/PPP3CB/TMEM165/RAB1B/TOM1/RAB3GAP1/MAP1LC3B2/RAB23/P2RX7/EFNB1/CLN8/PIK3C3/SPNS1/MTMR3/ARFIP2/GAA/HOOK3/ATG10</t>
   </si>
   <si>
     <t>PRLR/FCGR2B/LILRB2/GPR183/PLA2G5/BST2/CR1/HHEX/CD40/CD46/CD28/TNFSF13B/JAK2/KITLG/SOS2/CSF1R/CD86/LST1/CSF1/NCK1/MNDA/GPNMB/TNFSF8/STAT5B/BTK/PELI1/PDE5A/TLR4/MEF2C/IL6/AHR/PLA2G2A/PTK2/BCL2L1/SASH3/INPP5D/CSF2RB/IL33/CD274/BID/AIF1/TNFRSF1B/SOS1/EBI3/HES1/TFRC/MARCHF7/NCKAP1L/IL10/CEBPB/SYK/VSIG4/TNFAIP3/SLAMF1/KIT/SLC4A2/HAVCR2/BTN2A2/LYN/VAV3/LILRB4/TYROBP/IL12A/NFATC2/CSF2RA/PYCARD/IDO1</t>
   </si>
   <si>
-    <t>ABCA1/KLF4/MTSS1/SMAD7/MEF2C/KLF2/TGFB3/SMAD6/P2RX4/NFE2L2/TFPI2/CITED2/HAS2/PTGS2/ADAM9/MAP2K5/MAPK7/P2RX7</t>
+    <t>LILRB2/ABCA1/HCK/BMP6/CD40/CD180/SIRPA/SCARB1/JAK2/PF4/CCL2/CARD16/PPBP/CD86/PDCD4/NLRP3/SPI1/LY86/CASP1/TLR2/TLR4/PLSCR4/MEF2C/PDE4B/NFKBIZ/IL6/ZFP36/CD36/CASP7/MAPK14/CD274/LY96/PRKCE/TNFRSF1B/SERPINE1/CXCL1/CXCL2/IL36RN/TRIB1/CXCL8/MRC1/IL10/PTAFR/CD68/MALT1/RHOA/CD14/TNFAIP3/TNIP3/NR1H3/HAVCR2/LYN/NFKBIA/MAPK8/PYCARD/GIT1/CSF3/CHMP5/IRF8/CXCL5</t>
   </si>
 </sst>
 </file>
@@ -382,16 +379,16 @@
         <v>0.6586725979823345</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2039027055516014</v>
+        <v>2.1835077564853016</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0682523267838676E-4</v>
+        <v>2.0729684908789387E-4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J2" t="n">
         <v>2926.0</v>
@@ -400,7 +397,7 @@
         <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -420,16 +417,16 @@
         <v>0.6143871019198379</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1842033537582246</v>
+        <v>2.177019269176283</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0729684908789387E-4</v>
+        <v>2.0644095788604458E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J3" t="n">
         <v>3542.0</v>
@@ -438,7 +435,7 @@
         <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -458,16 +455,16 @@
         <v>0.6478132753087471</v>
       </c>
       <c r="F4" t="n">
-        <v>2.178650197264016</v>
+        <v>2.166766202583775</v>
       </c>
       <c r="G4" t="n">
-        <v>2.068680182043856E-4</v>
+        <v>2.0644095788604458E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J4" t="n">
         <v>3279.0</v>
@@ -476,7 +473,7 @@
         <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -496,16 +493,16 @@
         <v>0.6478132753087471</v>
       </c>
       <c r="F5" t="n">
-        <v>2.178650197264016</v>
+        <v>2.166766202583775</v>
       </c>
       <c r="G5" t="n">
-        <v>2.068680182043856E-4</v>
+        <v>2.0644095788604458E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J5" t="n">
         <v>3279.0</v>
@@ -514,7 +511,7 @@
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -534,16 +531,16 @@
         <v>0.6574149091230143</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1715299167007913</v>
+        <v>2.1526538780415643</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0742584526031943E-4</v>
+        <v>2.0601565718994644E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J6" t="n">
         <v>3435.0</v>
@@ -552,7 +549,7 @@
         <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -572,16 +569,16 @@
         <v>0.51782868311511</v>
       </c>
       <c r="F7" t="n">
-        <v>2.124693991482965</v>
+        <v>2.1244014625169534</v>
       </c>
       <c r="G7" t="n">
-        <v>2.053388090349076E-4</v>
+        <v>2.0807324178110696E-4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J7" t="n">
         <v>3311.0</v>
@@ -590,7 +587,7 @@
         <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -610,16 +607,16 @@
         <v>0.5178043100005572</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1133382930022107</v>
+        <v>2.1152810075286284</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0559210526315788E-4</v>
+        <v>2.0661157024793388E-4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J8" t="n">
         <v>1739.0</v>
@@ -628,7 +625,7 @@
         <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -642,31 +639,31 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0</v>
+        <v>218.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.672250211164503</v>
+        <v>0.5180402363647337</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1126543820565558</v>
+        <v>2.1072438399838953</v>
       </c>
       <c r="G9" t="n">
-        <v>2.0859407592824363E-4</v>
+        <v>2.058460271716756E-4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J9" t="n">
-        <v>3435.0</v>
+        <v>2487.0</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -686,16 +683,16 @@
         <v>0.5206969548853553</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1068502975676298</v>
+        <v>2.105888539891028</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0785699438786114E-4</v>
+        <v>2.0716801325875285E-4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J10" t="n">
         <v>1966.0</v>
@@ -704,7 +701,7 @@
         <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -718,31 +715,31 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>218.0</v>
+        <v>186.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5180402363647337</v>
+        <v>0.5275417752126114</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1059252640514776</v>
+        <v>2.1037259366178436</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0716801325875285E-4</v>
+        <v>2.065688907250568E-4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J11" t="n">
-        <v>2487.0</v>
+        <v>2561.0</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -756,31 +753,31 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>186.0</v>
+        <v>41.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5275417752126114</v>
+        <v>0.672250211164503</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1040863765326066</v>
+        <v>2.0990279005748604</v>
       </c>
       <c r="G12" t="n">
-        <v>2.0403999183840033E-4</v>
+        <v>2.081165452653486E-4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J12" t="n">
-        <v>2561.0</v>
+        <v>3435.0</v>
       </c>
       <c r="K12" t="s">
         <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -794,31 +791,31 @@
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0</v>
+        <v>178.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5454299776992999</v>
+        <v>0.5255729772417413</v>
       </c>
       <c r="F13" t="n">
-        <v>2.094117078413441</v>
+        <v>2.0899759146133996</v>
       </c>
       <c r="G13" t="n">
-        <v>2.050020500205002E-4</v>
+        <v>2.025931928687196E-4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J13" t="n">
-        <v>1873.0</v>
+        <v>1762.0</v>
       </c>
       <c r="K13" t="s">
         <v>61</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -832,31 +829,31 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0</v>
+        <v>321.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6942402422472209</v>
+        <v>0.4925874273990314</v>
       </c>
       <c r="F14" t="n">
-        <v>2.089554011285226</v>
+        <v>2.086378364291082</v>
       </c>
       <c r="G14" t="n">
-        <v>4.12796697626419E-4</v>
+        <v>2.0742584526031943E-4</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005638175169942821</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004361009274271596</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J14" t="n">
-        <v>3435.0</v>
+        <v>2952.0</v>
       </c>
       <c r="K14" t="s">
         <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -870,31 +867,31 @@
         <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>178.0</v>
+        <v>136.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5255729772417413</v>
+        <v>0.5454299776992999</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0853854954158764</v>
+        <v>2.0845828151843615</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0479213598197828E-4</v>
+        <v>2.0563438206868187E-4</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J15" t="n">
-        <v>1762.0</v>
+        <v>1873.0</v>
       </c>
       <c r="K15" t="s">
         <v>63</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -908,22 +905,22 @@
         <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>193.0</v>
+        <v>336.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.519589147349921</v>
+        <v>0.4887389511120789</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0840007167929753</v>
+        <v>2.079591385196139</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0374898125509371E-4</v>
+        <v>2.081165452653486E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J16" t="n">
         <v>2740.0</v>
@@ -932,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -946,31 +943,31 @@
         <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>321.0</v>
+        <v>193.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4925874273990314</v>
+        <v>0.519589147349921</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0814346182240007</v>
+        <v>2.0794176628092034</v>
       </c>
       <c r="G17" t="n">
-        <v>2.050440844781628E-4</v>
+        <v>2.063983488132095E-4</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J17" t="n">
-        <v>2952.0</v>
+        <v>2740.0</v>
       </c>
       <c r="K17" t="s">
         <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -984,31 +981,31 @@
         <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>336.0</v>
+        <v>33.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4887389511120789</v>
+        <v>0.6942402422472209</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0729756650085243</v>
+        <v>2.0750096535291545</v>
       </c>
       <c r="G18" t="n">
-        <v>2.0678246484698098E-4</v>
+        <v>4.170141784820684E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.006275623062646482</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.004905405740182161</v>
       </c>
       <c r="J18" t="n">
-        <v>2740.0</v>
+        <v>3435.0</v>
       </c>
       <c r="K18" t="s">
         <v>66</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1028,16 +1025,16 @@
         <v>0.5090259148897265</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0680062806523085</v>
+        <v>2.0674362187783606</v>
       </c>
       <c r="G19" t="n">
-        <v>2.0652622883106156E-4</v>
+        <v>2.0669698222405952E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J19" t="n">
         <v>3218.0</v>
@@ -1046,7 +1043,7 @@
         <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1066,16 +1063,16 @@
         <v>0.5000135209678245</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0670514427022</v>
+        <v>2.0652974539405164</v>
       </c>
       <c r="G20" t="n">
-        <v>2.0449897750511248E-4</v>
+        <v>2.070822116380203E-4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0032402559363976994</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002506269451324491</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J20" t="n">
         <v>1873.0</v>
@@ -1084,7 +1081,7 @@
         <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -1098,31 +1095,31 @@
         <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>32.0</v>
+        <v>202.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6933623780239644</v>
+        <v>0.5116196236483145</v>
       </c>
       <c r="F21" t="n">
-        <v>2.066557273185362</v>
+        <v>2.0617347283282395</v>
       </c>
       <c r="G21" t="n">
-        <v>4.171011470281543E-4</v>
+        <v>2.0588840848260242E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.005638175169942821</v>
+        <v>0.0035739206570725075</v>
       </c>
       <c r="I21" t="n">
-        <v>0.004361009274271596</v>
+        <v>0.0027935920833916184</v>
       </c>
       <c r="J21" t="n">
-        <v>2916.0</v>
+        <v>1966.0</v>
       </c>
       <c r="K21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
